--- a/reports/Ricarico_Listini_Jan-06-2021.xlsx
+++ b/reports/Ricarico_Listini_Jan-06-2021.xlsx
@@ -2180,10 +2180,10 @@
         <v>302</v>
       </c>
       <c r="C2">
-        <v>14.37</v>
+        <v>14</v>
       </c>
       <c r="D2">
-        <v>25.52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2194,10 +2194,10 @@
         <v>303</v>
       </c>
       <c r="C3">
-        <v>14.33</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>24.95</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2208,10 +2208,10 @@
         <v>304</v>
       </c>
       <c r="C4">
-        <v>15.15</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>27.31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2222,10 +2222,10 @@
         <v>305</v>
       </c>
       <c r="C5">
-        <v>13.62</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>24.88</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2236,10 +2236,10 @@
         <v>306</v>
       </c>
       <c r="C6">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>31.44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2250,10 +2250,10 @@
         <v>307</v>
       </c>
       <c r="C7">
-        <v>17.3</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>25.52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2264,10 +2264,10 @@
         <v>308</v>
       </c>
       <c r="C8">
-        <v>16.99</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>26.65</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2278,10 +2278,10 @@
         <v>309</v>
       </c>
       <c r="C9">
-        <v>13.62</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>24.49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2292,10 +2292,10 @@
         <v>310</v>
       </c>
       <c r="C10">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>25.21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2306,10 +2306,10 @@
         <v>311</v>
       </c>
       <c r="C11">
-        <v>17.72</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>25.2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2320,10 +2320,10 @@
         <v>312</v>
       </c>
       <c r="C12">
-        <v>13.62</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>24.89</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2334,10 +2334,10 @@
         <v>313</v>
       </c>
       <c r="C13">
-        <v>14.66</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>24.88</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2348,10 +2348,10 @@
         <v>314</v>
       </c>
       <c r="C14">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>31.44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2362,10 +2362,10 @@
         <v>315</v>
       </c>
       <c r="C15">
-        <v>16.44</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>24.03</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2376,10 +2376,10 @@
         <v>316</v>
       </c>
       <c r="C16">
-        <v>17.74</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>25.21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2390,10 +2390,10 @@
         <v>317</v>
       </c>
       <c r="C17">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>28.46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2404,10 +2404,10 @@
         <v>318</v>
       </c>
       <c r="C18">
-        <v>14.98</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>29.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2418,10 +2418,10 @@
         <v>319</v>
       </c>
       <c r="C19">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <v>30.38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2432,10 +2432,10 @@
         <v>320</v>
       </c>
       <c r="C20">
-        <v>15.99</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>26.95</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2446,10 +2446,10 @@
         <v>321</v>
       </c>
       <c r="C21">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D21">
-        <v>28.37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2460,10 +2460,10 @@
         <v>322</v>
       </c>
       <c r="C22">
-        <v>16.15</v>
+        <v>16</v>
       </c>
       <c r="D22">
-        <v>29.27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2474,10 +2474,10 @@
         <v>323</v>
       </c>
       <c r="C23">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D23">
-        <v>29.94</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2488,10 +2488,10 @@
         <v>324</v>
       </c>
       <c r="C24">
-        <v>17.01</v>
+        <v>17</v>
       </c>
       <c r="D24">
-        <v>25.87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2502,10 +2502,10 @@
         <v>325</v>
       </c>
       <c r="C25">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D25">
-        <v>26.32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2516,10 +2516,10 @@
         <v>326</v>
       </c>
       <c r="C26">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D26">
-        <v>26.91</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2530,10 +2530,10 @@
         <v>327</v>
       </c>
       <c r="C27">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D27">
-        <v>26.61</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2544,10 +2544,10 @@
         <v>328</v>
       </c>
       <c r="C28">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D28">
-        <v>31.44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2558,10 +2558,10 @@
         <v>329</v>
       </c>
       <c r="C29">
-        <v>15.81</v>
+        <v>16</v>
       </c>
       <c r="D29">
-        <v>26.79</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2572,10 +2572,10 @@
         <v>330</v>
       </c>
       <c r="C30">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D30">
-        <v>25.21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2586,10 +2586,10 @@
         <v>331</v>
       </c>
       <c r="C31">
-        <v>9.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="D31">
-        <v>13.62</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2600,10 +2600,10 @@
         <v>332</v>
       </c>
       <c r="C32">
-        <v>15.96</v>
+        <v>16</v>
       </c>
       <c r="D32">
-        <v>28.04</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2614,10 +2614,10 @@
         <v>333</v>
       </c>
       <c r="C33">
-        <v>15.92</v>
+        <v>16</v>
       </c>
       <c r="D33">
-        <v>27.74</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2628,10 +2628,10 @@
         <v>334</v>
       </c>
       <c r="C34">
-        <v>16.64</v>
+        <v>17</v>
       </c>
       <c r="D34">
-        <v>29.56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2642,10 +2642,10 @@
         <v>335</v>
       </c>
       <c r="C35">
-        <v>17.16</v>
+        <v>17</v>
       </c>
       <c r="D35">
-        <v>27.79</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2656,10 +2656,10 @@
         <v>336</v>
       </c>
       <c r="C36">
-        <v>15.94</v>
+        <v>16</v>
       </c>
       <c r="D36">
-        <v>28.65</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2670,10 +2670,10 @@
         <v>337</v>
       </c>
       <c r="C37">
-        <v>17.58</v>
+        <v>18</v>
       </c>
       <c r="D37">
-        <v>27.17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2684,10 +2684,10 @@
         <v>338</v>
       </c>
       <c r="C38">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D38">
-        <v>31.44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2698,10 +2698,10 @@
         <v>339</v>
       </c>
       <c r="C39">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D39">
-        <v>31.44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2712,10 +2712,10 @@
         <v>340</v>
       </c>
       <c r="C40">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D40">
-        <v>25.96</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2726,10 +2726,10 @@
         <v>341</v>
       </c>
       <c r="C41">
-        <v>17.56</v>
+        <v>18</v>
       </c>
       <c r="D41">
-        <v>25.05</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2740,10 +2740,10 @@
         <v>341</v>
       </c>
       <c r="C42">
-        <v>17.55</v>
+        <v>18</v>
       </c>
       <c r="D42">
-        <v>25.24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2754,10 +2754,10 @@
         <v>342</v>
       </c>
       <c r="C43">
-        <v>17.26</v>
+        <v>17</v>
       </c>
       <c r="D43">
-        <v>29.31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2768,10 +2768,10 @@
         <v>343</v>
       </c>
       <c r="C44">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="D44">
-        <v>26.58</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2782,10 +2782,10 @@
         <v>344</v>
       </c>
       <c r="C45">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D45">
-        <v>28.46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2796,10 +2796,10 @@
         <v>345</v>
       </c>
       <c r="C46">
-        <v>17.19</v>
+        <v>17</v>
       </c>
       <c r="D46">
-        <v>30.75</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2810,10 +2810,10 @@
         <v>346</v>
       </c>
       <c r="C47">
-        <v>9.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="D47">
-        <v>13.62</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2824,10 +2824,10 @@
         <v>347</v>
       </c>
       <c r="C48">
-        <v>9.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="D48">
-        <v>13.62</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2838,10 +2838,10 @@
         <v>348</v>
       </c>
       <c r="C49">
-        <v>9.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="D49">
-        <v>13.62</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2852,10 +2852,10 @@
         <v>349</v>
       </c>
       <c r="C50">
-        <v>16.69</v>
+        <v>17</v>
       </c>
       <c r="D50">
-        <v>28.47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2866,10 +2866,10 @@
         <v>350</v>
       </c>
       <c r="C51">
-        <v>11.43</v>
+        <v>11</v>
       </c>
       <c r="D51">
-        <v>23.3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2880,10 +2880,10 @@
         <v>351</v>
       </c>
       <c r="C52">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="D52">
-        <v>19.98</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2894,10 +2894,10 @@
         <v>352</v>
       </c>
       <c r="C53">
-        <v>13.61</v>
+        <v>14</v>
       </c>
       <c r="D53">
-        <v>21.46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2908,10 +2908,10 @@
         <v>353</v>
       </c>
       <c r="C54">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D54">
-        <v>27.94</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2922,10 +2922,10 @@
         <v>354</v>
       </c>
       <c r="C55">
-        <v>7.39</v>
+        <v>7</v>
       </c>
       <c r="D55">
-        <v>10.18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2936,10 +2936,10 @@
         <v>355</v>
       </c>
       <c r="C56">
-        <v>11.71</v>
+        <v>12</v>
       </c>
       <c r="D56">
-        <v>16.35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2950,10 +2950,10 @@
         <v>356</v>
       </c>
       <c r="C57">
-        <v>10.23</v>
+        <v>10</v>
       </c>
       <c r="D57">
-        <v>18.39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2964,10 +2964,10 @@
         <v>357</v>
       </c>
       <c r="C58">
-        <v>13.45</v>
+        <v>13</v>
       </c>
       <c r="D58">
-        <v>19.36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2978,10 +2978,10 @@
         <v>358</v>
       </c>
       <c r="C59">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D59">
-        <v>25.21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2992,10 +2992,10 @@
         <v>359</v>
       </c>
       <c r="C60">
-        <v>9.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="D60">
-        <v>13.62</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3006,10 +3006,10 @@
         <v>360</v>
       </c>
       <c r="C61">
-        <v>16.93</v>
+        <v>17</v>
       </c>
       <c r="D61">
-        <v>27.48</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3020,10 +3020,10 @@
         <v>361</v>
       </c>
       <c r="C62">
-        <v>7.48</v>
+        <v>7</v>
       </c>
       <c r="D62">
-        <v>15.07</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3034,10 +3034,10 @@
         <v>362</v>
       </c>
       <c r="C63">
-        <v>14.61</v>
+        <v>15</v>
       </c>
       <c r="D63">
-        <v>28.12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3048,10 +3048,10 @@
         <v>363</v>
       </c>
       <c r="C64">
-        <v>7.66</v>
+        <v>8</v>
       </c>
       <c r="D64">
-        <v>8.9</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3062,10 +3062,10 @@
         <v>364</v>
       </c>
       <c r="C65">
-        <v>16.49</v>
+        <v>16</v>
       </c>
       <c r="D65">
-        <v>28.33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3076,10 +3076,10 @@
         <v>365</v>
       </c>
       <c r="C66">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="D66">
-        <v>5.76</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3090,10 +3090,10 @@
         <v>366</v>
       </c>
       <c r="C67">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="D67">
-        <v>5.76</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3104,10 +3104,10 @@
         <v>367</v>
       </c>
       <c r="C68">
-        <v>6.39</v>
+        <v>6</v>
       </c>
       <c r="D68">
-        <v>10.84</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3118,10 +3118,10 @@
         <v>368</v>
       </c>
       <c r="C69">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D69">
-        <v>28.46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3132,10 +3132,10 @@
         <v>369</v>
       </c>
       <c r="C70">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D70">
-        <v>25.21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3146,10 +3146,10 @@
         <v>370</v>
       </c>
       <c r="C71">
-        <v>38.05</v>
+        <v>38</v>
       </c>
       <c r="D71">
-        <v>46.1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3160,10 +3160,10 @@
         <v>371</v>
       </c>
       <c r="C72">
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="D72">
-        <v>35.8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3174,10 +3174,10 @@
         <v>372</v>
       </c>
       <c r="C73">
-        <v>17.56</v>
+        <v>18</v>
       </c>
       <c r="D73">
-        <v>25.2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3188,10 +3188,10 @@
         <v>373</v>
       </c>
       <c r="C74">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D74">
-        <v>28.46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3202,10 +3202,10 @@
         <v>374</v>
       </c>
       <c r="C75">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D75">
-        <v>25.21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3216,10 +3216,10 @@
         <v>375</v>
       </c>
       <c r="C76">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D76">
-        <v>27.86</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3230,10 +3230,10 @@
         <v>376</v>
       </c>
       <c r="C77">
-        <v>17.28</v>
+        <v>17</v>
       </c>
       <c r="D77">
-        <v>24.71</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3244,10 +3244,10 @@
         <v>377</v>
       </c>
       <c r="C78">
-        <v>8.49</v>
+        <v>8</v>
       </c>
       <c r="D78">
-        <v>10.21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3258,10 +3258,10 @@
         <v>378</v>
       </c>
       <c r="C79">
-        <v>6.13</v>
+        <v>6</v>
       </c>
       <c r="D79">
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3272,10 +3272,10 @@
         <v>379</v>
       </c>
       <c r="C80">
-        <v>5.74</v>
+        <v>6</v>
       </c>
       <c r="D80">
-        <v>6.18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3286,10 +3286,10 @@
         <v>377</v>
       </c>
       <c r="C81">
-        <v>7.12</v>
+        <v>7</v>
       </c>
       <c r="D81">
-        <v>7.25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3300,10 +3300,10 @@
         <v>380</v>
       </c>
       <c r="C82">
-        <v>13.32</v>
+        <v>13</v>
       </c>
       <c r="D82">
-        <v>21.2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3314,10 +3314,10 @@
         <v>381</v>
       </c>
       <c r="C83">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D83">
-        <v>25.21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3328,10 +3328,10 @@
         <v>382</v>
       </c>
       <c r="C84">
-        <v>14.85</v>
+        <v>15</v>
       </c>
       <c r="D84">
-        <v>23.84</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3342,10 +3342,10 @@
         <v>383</v>
       </c>
       <c r="C85">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D85">
-        <v>28.46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3356,10 +3356,10 @@
         <v>384</v>
       </c>
       <c r="C86">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D86">
-        <v>25.21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3370,10 +3370,10 @@
         <v>385</v>
       </c>
       <c r="C87">
-        <v>13.67</v>
+        <v>14</v>
       </c>
       <c r="D87">
-        <v>21.71</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3384,10 +3384,10 @@
         <v>386</v>
       </c>
       <c r="C88">
-        <v>13.19</v>
+        <v>13</v>
       </c>
       <c r="D88">
-        <v>21.08</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3398,10 +3398,10 @@
         <v>387</v>
       </c>
       <c r="C89">
-        <v>15.81</v>
+        <v>16</v>
       </c>
       <c r="D89">
-        <v>26.54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3412,10 +3412,10 @@
         <v>388</v>
       </c>
       <c r="C90">
-        <v>14.4</v>
+        <v>14</v>
       </c>
       <c r="D90">
-        <v>22.18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3426,10 +3426,10 @@
         <v>389</v>
       </c>
       <c r="C91">
-        <v>16.13</v>
+        <v>16</v>
       </c>
       <c r="D91">
-        <v>23.76</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3440,10 +3440,10 @@
         <v>390</v>
       </c>
       <c r="C92">
-        <v>14.98</v>
+        <v>15</v>
       </c>
       <c r="D92">
-        <v>24.92</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3454,10 +3454,10 @@
         <v>391</v>
       </c>
       <c r="C93">
-        <v>12.81</v>
+        <v>13</v>
       </c>
       <c r="D93">
-        <v>20.46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3468,10 +3468,10 @@
         <v>392</v>
       </c>
       <c r="C94">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D94">
-        <v>28.46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3482,10 +3482,10 @@
         <v>393</v>
       </c>
       <c r="C95">
-        <v>17.43</v>
+        <v>17</v>
       </c>
       <c r="D95">
-        <v>28.96</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3496,10 +3496,10 @@
         <v>394</v>
       </c>
       <c r="C96">
-        <v>15.07</v>
+        <v>15</v>
       </c>
       <c r="D96">
-        <v>27.33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3510,10 +3510,10 @@
         <v>395</v>
       </c>
       <c r="C97">
-        <v>16.81</v>
+        <v>17</v>
       </c>
       <c r="D97">
-        <v>24.79</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3524,10 +3524,10 @@
         <v>396</v>
       </c>
       <c r="C98">
-        <v>13.77</v>
+        <v>14</v>
       </c>
       <c r="D98">
-        <v>24.04</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3538,10 +3538,10 @@
         <v>397</v>
       </c>
       <c r="C99">
-        <v>13.17</v>
+        <v>13</v>
       </c>
       <c r="D99">
-        <v>21.53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3552,10 +3552,10 @@
         <v>398</v>
       </c>
       <c r="C100">
-        <v>12.84</v>
+        <v>13</v>
       </c>
       <c r="D100">
-        <v>24.21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3566,10 +3566,10 @@
         <v>399</v>
       </c>
       <c r="C101">
-        <v>15.08</v>
+        <v>15</v>
       </c>
       <c r="D101">
-        <v>25.99</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3580,10 +3580,10 @@
         <v>400</v>
       </c>
       <c r="C102">
-        <v>16.75</v>
+        <v>17</v>
       </c>
       <c r="D102">
-        <v>24.43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3594,10 +3594,10 @@
         <v>401</v>
       </c>
       <c r="C103">
-        <v>10.27</v>
+        <v>10</v>
       </c>
       <c r="D103">
-        <v>21.97</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3608,10 +3608,10 @@
         <v>402</v>
       </c>
       <c r="C104">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D104">
-        <v>34.21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3622,10 +3622,10 @@
         <v>403</v>
       </c>
       <c r="C105">
-        <v>14.24</v>
+        <v>14</v>
       </c>
       <c r="D105">
-        <v>25.2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3636,10 +3636,10 @@
         <v>404</v>
       </c>
       <c r="C106">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D106">
-        <v>30.03</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3650,10 +3650,10 @@
         <v>405</v>
       </c>
       <c r="C107">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D107">
-        <v>27.27</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3664,10 +3664,10 @@
         <v>406</v>
       </c>
       <c r="C108">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D108">
-        <v>26.02</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3678,10 +3678,10 @@
         <v>407</v>
       </c>
       <c r="C109">
-        <v>11.22</v>
+        <v>11</v>
       </c>
       <c r="D109">
-        <v>19.72</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3692,10 +3692,10 @@
         <v>408</v>
       </c>
       <c r="C110">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D110">
-        <v>33.77</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3706,10 +3706,10 @@
         <v>409</v>
       </c>
       <c r="C111">
-        <v>17.34</v>
+        <v>17</v>
       </c>
       <c r="D111">
-        <v>33.8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3720,10 +3720,10 @@
         <v>410</v>
       </c>
       <c r="C112">
-        <v>17.18</v>
+        <v>17</v>
       </c>
       <c r="D112">
-        <v>33.75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3734,10 +3734,10 @@
         <v>411</v>
       </c>
       <c r="C113">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D113">
-        <v>34.18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3748,10 +3748,10 @@
         <v>412</v>
       </c>
       <c r="C114">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D114">
-        <v>34.18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3762,10 +3762,10 @@
         <v>413</v>
       </c>
       <c r="C115">
-        <v>17.6</v>
+        <v>18</v>
       </c>
       <c r="D115">
-        <v>31.23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3776,10 +3776,10 @@
         <v>414</v>
       </c>
       <c r="C116">
-        <v>17.04</v>
+        <v>17</v>
       </c>
       <c r="D116">
-        <v>33.63</v>
+        <v>34</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3790,10 +3790,10 @@
         <v>415</v>
       </c>
       <c r="C117">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D117">
-        <v>29.17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3804,10 +3804,10 @@
         <v>416</v>
       </c>
       <c r="C118">
-        <v>17.69</v>
+        <v>18</v>
       </c>
       <c r="D118">
-        <v>34.15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3818,10 +3818,10 @@
         <v>417</v>
       </c>
       <c r="C119">
-        <v>17.06</v>
+        <v>17</v>
       </c>
       <c r="D119">
-        <v>32.33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3832,10 +3832,10 @@
         <v>418</v>
       </c>
       <c r="C120">
-        <v>17.32</v>
+        <v>17</v>
       </c>
       <c r="D120">
-        <v>29.85</v>
+        <v>30</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3846,10 +3846,10 @@
         <v>419</v>
       </c>
       <c r="C121">
-        <v>17.18</v>
+        <v>17</v>
       </c>
       <c r="D121">
-        <v>31.21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3860,10 +3860,10 @@
         <v>420</v>
       </c>
       <c r="C122">
-        <v>17.28</v>
+        <v>17</v>
       </c>
       <c r="D122">
-        <v>30.18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3874,10 +3874,10 @@
         <v>421</v>
       </c>
       <c r="C123">
-        <v>16.94</v>
+        <v>17</v>
       </c>
       <c r="D123">
-        <v>33.55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3888,10 +3888,10 @@
         <v>422</v>
       </c>
       <c r="C124">
-        <v>16.94</v>
+        <v>17</v>
       </c>
       <c r="D124">
-        <v>33.55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3902,10 +3902,10 @@
         <v>423</v>
       </c>
       <c r="C125">
-        <v>17.23</v>
+        <v>17</v>
       </c>
       <c r="D125">
-        <v>32.79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3916,10 +3916,10 @@
         <v>424</v>
       </c>
       <c r="C126">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D126">
-        <v>33.04</v>
+        <v>33</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3930,10 +3930,10 @@
         <v>425</v>
       </c>
       <c r="C127">
-        <v>9.630000000000001</v>
+        <v>10</v>
       </c>
       <c r="D127">
-        <v>11.04</v>
+        <v>11</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3944,10 +3944,10 @@
         <v>426</v>
       </c>
       <c r="C128">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D128">
-        <v>34.18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3958,10 +3958,10 @@
         <v>427</v>
       </c>
       <c r="C129">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D129">
-        <v>34.18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3972,10 +3972,10 @@
         <v>428</v>
       </c>
       <c r="C130">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D130">
-        <v>34.18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3986,10 +3986,10 @@
         <v>429</v>
       </c>
       <c r="C131">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D131">
-        <v>34.18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4000,10 +4000,10 @@
         <v>430</v>
       </c>
       <c r="C132">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D132">
-        <v>28.46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -4014,10 +4014,10 @@
         <v>431</v>
       </c>
       <c r="C133">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D133">
-        <v>34.18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4028,10 +4028,10 @@
         <v>432</v>
       </c>
       <c r="C134">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D134">
-        <v>28.46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4042,10 +4042,10 @@
         <v>433</v>
       </c>
       <c r="C135">
-        <v>12.64</v>
+        <v>13</v>
       </c>
       <c r="D135">
-        <v>20.27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -4056,10 +4056,10 @@
         <v>434</v>
       </c>
       <c r="C136">
-        <v>5.77</v>
+        <v>6</v>
       </c>
       <c r="D136">
-        <v>5.79</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4070,10 +4070,10 @@
         <v>435</v>
       </c>
       <c r="C137">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="D137">
-        <v>5.76</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -4084,10 +4084,10 @@
         <v>436</v>
       </c>
       <c r="C138">
-        <v>7.51</v>
+        <v>8</v>
       </c>
       <c r="D138">
-        <v>11.45</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -4098,10 +4098,10 @@
         <v>437</v>
       </c>
       <c r="C139">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="D139">
-        <v>5.76</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -4112,10 +4112,10 @@
         <v>438</v>
       </c>
       <c r="C140">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="D140">
-        <v>5.76</v>
+        <v>6</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -4126,10 +4126,10 @@
         <v>439</v>
       </c>
       <c r="C141">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="D141">
-        <v>5.76</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -4140,10 +4140,10 @@
         <v>440</v>
       </c>
       <c r="C142">
-        <v>13.67</v>
+        <v>14</v>
       </c>
       <c r="D142">
-        <v>28.02</v>
+        <v>28</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -4154,10 +4154,10 @@
         <v>441</v>
       </c>
       <c r="C143">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D143">
-        <v>28.46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -4168,10 +4168,10 @@
         <v>442</v>
       </c>
       <c r="C144">
-        <v>13.62</v>
+        <v>14</v>
       </c>
       <c r="D144">
-        <v>30.89</v>
+        <v>31</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4182,10 +4182,10 @@
         <v>443</v>
       </c>
       <c r="C145">
-        <v>18.44</v>
+        <v>18</v>
       </c>
       <c r="D145">
-        <v>34.61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4196,10 +4196,10 @@
         <v>444</v>
       </c>
       <c r="C146">
-        <v>17.4</v>
+        <v>17</v>
       </c>
       <c r="D146">
-        <v>27.38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4210,10 +4210,10 @@
         <v>445</v>
       </c>
       <c r="C147">
-        <v>17.47</v>
+        <v>17</v>
       </c>
       <c r="D147">
-        <v>25.78</v>
+        <v>26</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4224,10 +4224,10 @@
         <v>446</v>
       </c>
       <c r="C148">
-        <v>16.25</v>
+        <v>16</v>
       </c>
       <c r="D148">
-        <v>30.53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4238,10 +4238,10 @@
         <v>447</v>
       </c>
       <c r="C149">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="D149">
-        <v>27.14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4255,7 +4255,7 @@
         <v>17</v>
       </c>
       <c r="D150">
-        <v>28.21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4266,10 +4266,10 @@
         <v>449</v>
       </c>
       <c r="C151">
-        <v>15.89</v>
+        <v>16</v>
       </c>
       <c r="D151">
-        <v>36.25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4280,10 +4280,10 @@
         <v>449</v>
       </c>
       <c r="C152">
-        <v>13.44</v>
+        <v>13</v>
       </c>
       <c r="D152">
-        <v>25.12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4294,10 +4294,10 @@
         <v>450</v>
       </c>
       <c r="C153">
-        <v>14.26</v>
+        <v>14</v>
       </c>
       <c r="D153">
-        <v>25.86</v>
+        <v>26</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4308,10 +4308,10 @@
         <v>451</v>
       </c>
       <c r="C154">
-        <v>13.85</v>
+        <v>14</v>
       </c>
       <c r="D154">
-        <v>26.37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4322,10 +4322,10 @@
         <v>452</v>
       </c>
       <c r="C155">
-        <v>16.18</v>
+        <v>16</v>
       </c>
       <c r="D155">
-        <v>26.23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4336,10 +4336,10 @@
         <v>453</v>
       </c>
       <c r="C156">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D156">
-        <v>25.21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4350,10 +4350,10 @@
         <v>454</v>
       </c>
       <c r="C157">
-        <v>22.41</v>
+        <v>22</v>
       </c>
       <c r="D157">
-        <v>32.21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4364,10 +4364,10 @@
         <v>455</v>
       </c>
       <c r="C158">
-        <v>15.74</v>
+        <v>16</v>
       </c>
       <c r="D158">
-        <v>28.01</v>
+        <v>28</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4378,10 +4378,10 @@
         <v>456</v>
       </c>
       <c r="C159">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D159">
-        <v>45.15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4392,10 +4392,10 @@
         <v>457</v>
       </c>
       <c r="C160">
-        <v>15.69</v>
+        <v>16</v>
       </c>
       <c r="D160">
-        <v>25.99</v>
+        <v>26</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4406,10 +4406,10 @@
         <v>458</v>
       </c>
       <c r="C161">
-        <v>13.53</v>
+        <v>14</v>
       </c>
       <c r="D161">
-        <v>22.98</v>
+        <v>23</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4420,10 +4420,10 @@
         <v>459</v>
       </c>
       <c r="C162">
-        <v>13.94</v>
+        <v>14</v>
       </c>
       <c r="D162">
-        <v>25.35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4434,10 +4434,10 @@
         <v>460</v>
       </c>
       <c r="C163">
-        <v>16.05</v>
+        <v>16</v>
       </c>
       <c r="D163">
-        <v>31.1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4448,10 +4448,10 @@
         <v>460</v>
       </c>
       <c r="C164">
-        <v>13.13</v>
+        <v>13</v>
       </c>
       <c r="D164">
-        <v>23.34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4462,10 +4462,10 @@
         <v>461</v>
       </c>
       <c r="C165">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D165">
-        <v>25.21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4476,10 +4476,10 @@
         <v>462</v>
       </c>
       <c r="C166">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D166">
-        <v>25.22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4490,10 +4490,10 @@
         <v>463</v>
       </c>
       <c r="C167">
-        <v>9.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="D167">
-        <v>27.44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4504,10 +4504,10 @@
         <v>463</v>
       </c>
       <c r="C168">
-        <v>15.09</v>
+        <v>15</v>
       </c>
       <c r="D168">
-        <v>25.63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4518,10 +4518,10 @@
         <v>464</v>
       </c>
       <c r="C169">
-        <v>16.08</v>
+        <v>16</v>
       </c>
       <c r="D169">
-        <v>25.26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4532,10 +4532,10 @@
         <v>465</v>
       </c>
       <c r="C170">
-        <v>17.36</v>
+        <v>17</v>
       </c>
       <c r="D170">
-        <v>25.37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4546,10 +4546,10 @@
         <v>466</v>
       </c>
       <c r="C171">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D171">
-        <v>32.12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4560,10 +4560,10 @@
         <v>466</v>
       </c>
       <c r="C172">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D172">
-        <v>27.57</v>
+        <v>28</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4574,10 +4574,10 @@
         <v>467</v>
       </c>
       <c r="C173">
-        <v>13.61</v>
+        <v>14</v>
       </c>
       <c r="D173">
-        <v>24.88</v>
+        <v>25</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4588,10 +4588,10 @@
         <v>468</v>
       </c>
       <c r="C174">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D174">
-        <v>31.44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4602,10 +4602,10 @@
         <v>469</v>
       </c>
       <c r="C175">
-        <v>15.55</v>
+        <v>16</v>
       </c>
       <c r="D175">
-        <v>29.28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4619,7 +4619,7 @@
         <v>15</v>
       </c>
       <c r="D176">
-        <v>30.99</v>
+        <v>31</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4630,10 +4630,10 @@
         <v>471</v>
       </c>
       <c r="C177">
-        <v>14.48</v>
+        <v>14</v>
       </c>
       <c r="D177">
-        <v>27.41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4644,10 +4644,10 @@
         <v>472</v>
       </c>
       <c r="C178">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D178">
-        <v>33.56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4658,10 +4658,10 @@
         <v>473</v>
       </c>
       <c r="C179">
-        <v>11.74</v>
+        <v>12</v>
       </c>
       <c r="D179">
-        <v>22.52</v>
+        <v>23</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4672,10 +4672,10 @@
         <v>474</v>
       </c>
       <c r="C180">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D180">
-        <v>22.48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4686,7 +4686,7 @@
         <v>475</v>
       </c>
       <c r="C181">
-        <v>12.65</v>
+        <v>13</v>
       </c>
       <c r="D181">
         <v>22</v>
@@ -4700,10 +4700,10 @@
         <v>476</v>
       </c>
       <c r="C182">
-        <v>13.18</v>
+        <v>13</v>
       </c>
       <c r="D182">
-        <v>23.25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4714,10 +4714,10 @@
         <v>477</v>
       </c>
       <c r="C183">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D183">
-        <v>28.46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4728,10 +4728,10 @@
         <v>478</v>
       </c>
       <c r="C184">
-        <v>15.11</v>
+        <v>15</v>
       </c>
       <c r="D184">
-        <v>27.46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4742,10 +4742,10 @@
         <v>479</v>
       </c>
       <c r="C185">
-        <v>11.67</v>
+        <v>12</v>
       </c>
       <c r="D185">
-        <v>22.02</v>
+        <v>22</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4756,10 +4756,10 @@
         <v>480</v>
       </c>
       <c r="C186">
-        <v>12.59</v>
+        <v>13</v>
       </c>
       <c r="D186">
-        <v>21.76</v>
+        <v>22</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4770,10 +4770,10 @@
         <v>481</v>
       </c>
       <c r="C187">
-        <v>12.63</v>
+        <v>13</v>
       </c>
       <c r="D187">
-        <v>21.19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4784,10 +4784,10 @@
         <v>482</v>
       </c>
       <c r="C188">
-        <v>12.85</v>
+        <v>13</v>
       </c>
       <c r="D188">
-        <v>20.77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4798,10 +4798,10 @@
         <v>483</v>
       </c>
       <c r="C189">
-        <v>11.66</v>
+        <v>12</v>
       </c>
       <c r="D189">
-        <v>23.66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4812,10 +4812,10 @@
         <v>484</v>
       </c>
       <c r="C190">
-        <v>10.23</v>
+        <v>10</v>
       </c>
       <c r="D190">
-        <v>25.19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4826,10 +4826,10 @@
         <v>478</v>
       </c>
       <c r="C191">
-        <v>12.38</v>
+        <v>12</v>
       </c>
       <c r="D191">
-        <v>23.66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4840,10 +4840,10 @@
         <v>485</v>
       </c>
       <c r="C192">
-        <v>12.09</v>
+        <v>12</v>
       </c>
       <c r="D192">
-        <v>22.25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4854,10 +4854,10 @@
         <v>486</v>
       </c>
       <c r="C193">
-        <v>12.85</v>
+        <v>13</v>
       </c>
       <c r="D193">
-        <v>24.21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4868,10 +4868,10 @@
         <v>486</v>
       </c>
       <c r="C194">
-        <v>13.36</v>
+        <v>13</v>
       </c>
       <c r="D194">
-        <v>23.55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4882,10 +4882,10 @@
         <v>487</v>
       </c>
       <c r="C195">
-        <v>15.01</v>
+        <v>15</v>
       </c>
       <c r="D195">
-        <v>27.39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4896,10 +4896,10 @@
         <v>488</v>
       </c>
       <c r="C196">
-        <v>13.11</v>
+        <v>13</v>
       </c>
       <c r="D196">
-        <v>25.78</v>
+        <v>26</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4910,10 +4910,10 @@
         <v>489</v>
       </c>
       <c r="C197">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D197">
-        <v>28.94</v>
+        <v>29</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4924,10 +4924,10 @@
         <v>489</v>
       </c>
       <c r="C198">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D198">
-        <v>29.03</v>
+        <v>29</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4938,10 +4938,10 @@
         <v>486</v>
       </c>
       <c r="C199">
-        <v>13.62</v>
+        <v>14</v>
       </c>
       <c r="D199">
-        <v>24.88</v>
+        <v>25</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4955,7 +4955,7 @@
         <v>14</v>
       </c>
       <c r="D200">
-        <v>26.81</v>
+        <v>27</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4966,10 +4966,10 @@
         <v>491</v>
       </c>
       <c r="C201">
-        <v>17.28</v>
+        <v>17</v>
       </c>
       <c r="D201">
-        <v>28.03</v>
+        <v>28</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4980,10 +4980,10 @@
         <v>492</v>
       </c>
       <c r="C202">
-        <v>14.97</v>
+        <v>15</v>
       </c>
       <c r="D202">
-        <v>27.43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4994,10 +4994,10 @@
         <v>493</v>
       </c>
       <c r="C203">
-        <v>13.62</v>
+        <v>14</v>
       </c>
       <c r="D203">
-        <v>24.88</v>
+        <v>25</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -5008,10 +5008,10 @@
         <v>494</v>
       </c>
       <c r="C204">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="D204">
-        <v>28.75</v>
+        <v>29</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -5022,10 +5022,10 @@
         <v>495</v>
       </c>
       <c r="C205">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D205">
-        <v>25.21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -5036,10 +5036,10 @@
         <v>496</v>
       </c>
       <c r="C206">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D206">
-        <v>25.5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -5050,10 +5050,10 @@
         <v>497</v>
       </c>
       <c r="C207">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D207">
-        <v>26.31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -5064,10 +5064,10 @@
         <v>498</v>
       </c>
       <c r="C208">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D208">
-        <v>27.5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -5078,10 +5078,10 @@
         <v>499</v>
       </c>
       <c r="C209">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D209">
-        <v>25.21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -5092,10 +5092,10 @@
         <v>500</v>
       </c>
       <c r="C210">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D210">
-        <v>25.21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -5106,10 +5106,10 @@
         <v>501</v>
       </c>
       <c r="C211">
-        <v>17.31</v>
+        <v>17</v>
       </c>
       <c r="D211">
-        <v>27.7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -5120,10 +5120,10 @@
         <v>502</v>
       </c>
       <c r="C212">
-        <v>13.62</v>
+        <v>14</v>
       </c>
       <c r="D212">
-        <v>21.47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -5134,10 +5134,10 @@
         <v>503</v>
       </c>
       <c r="C213">
-        <v>17.09</v>
+        <v>17</v>
       </c>
       <c r="D213">
-        <v>25.45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -5148,10 +5148,10 @@
         <v>504</v>
       </c>
       <c r="C214">
-        <v>15.98</v>
+        <v>16</v>
       </c>
       <c r="D214">
-        <v>24.33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -5162,10 +5162,10 @@
         <v>505</v>
       </c>
       <c r="C215">
-        <v>14.58</v>
+        <v>15</v>
       </c>
       <c r="D215">
-        <v>23.9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -5176,10 +5176,10 @@
         <v>506</v>
       </c>
       <c r="C216">
-        <v>15.61</v>
+        <v>16</v>
       </c>
       <c r="D216">
-        <v>25.81</v>
+        <v>26</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -5190,10 +5190,10 @@
         <v>507</v>
       </c>
       <c r="C217">
-        <v>7.92</v>
+        <v>8</v>
       </c>
       <c r="D217">
-        <v>15.01</v>
+        <v>15</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -5204,10 +5204,10 @@
         <v>508</v>
       </c>
       <c r="C218">
-        <v>9.369999999999999</v>
+        <v>9</v>
       </c>
       <c r="D218">
-        <v>17.61</v>
+        <v>18</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -5232,10 +5232,10 @@
         <v>510</v>
       </c>
       <c r="C220">
-        <v>15.27</v>
+        <v>15</v>
       </c>
       <c r="D220">
-        <v>24.81</v>
+        <v>25</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5246,10 +5246,10 @@
         <v>511</v>
       </c>
       <c r="C221">
-        <v>13.62</v>
+        <v>14</v>
       </c>
       <c r="D221">
-        <v>21.47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5260,10 +5260,10 @@
         <v>512</v>
       </c>
       <c r="C222">
-        <v>13.62</v>
+        <v>14</v>
       </c>
       <c r="D222">
-        <v>21.47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5274,10 +5274,10 @@
         <v>513</v>
       </c>
       <c r="C223">
-        <v>13.62</v>
+        <v>14</v>
       </c>
       <c r="D223">
-        <v>21.47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5288,10 +5288,10 @@
         <v>514</v>
       </c>
       <c r="C224">
-        <v>14.15</v>
+        <v>14</v>
       </c>
       <c r="D224">
-        <v>23.75</v>
+        <v>24</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5302,10 +5302,10 @@
         <v>515</v>
       </c>
       <c r="C225">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D225">
-        <v>31.44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5316,10 +5316,10 @@
         <v>516</v>
       </c>
       <c r="C226">
-        <v>14.31</v>
+        <v>14</v>
       </c>
       <c r="D226">
-        <v>22.55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5330,10 +5330,10 @@
         <v>517</v>
       </c>
       <c r="C227">
-        <v>14.43</v>
+        <v>14</v>
       </c>
       <c r="D227">
-        <v>22.24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5344,10 +5344,10 @@
         <v>518</v>
       </c>
       <c r="C228">
-        <v>14.47</v>
+        <v>14</v>
       </c>
       <c r="D228">
-        <v>25.63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5358,10 +5358,10 @@
         <v>514</v>
       </c>
       <c r="C229">
-        <v>16.03</v>
+        <v>16</v>
       </c>
       <c r="D229">
-        <v>20.53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5372,10 +5372,10 @@
         <v>519</v>
       </c>
       <c r="C230">
-        <v>13.62</v>
+        <v>14</v>
       </c>
       <c r="D230">
-        <v>22.35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5386,10 +5386,10 @@
         <v>520</v>
       </c>
       <c r="C231">
-        <v>15.74</v>
+        <v>16</v>
       </c>
       <c r="D231">
-        <v>30.42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5400,10 +5400,10 @@
         <v>521</v>
       </c>
       <c r="C232">
-        <v>15.95</v>
+        <v>16</v>
       </c>
       <c r="D232">
-        <v>25.07</v>
+        <v>25</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5414,10 +5414,10 @@
         <v>522</v>
       </c>
       <c r="C233">
-        <v>14.07</v>
+        <v>14</v>
       </c>
       <c r="D233">
-        <v>22.78</v>
+        <v>23</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5428,10 +5428,10 @@
         <v>523</v>
       </c>
       <c r="C234">
-        <v>14.12</v>
+        <v>14</v>
       </c>
       <c r="D234">
-        <v>22.84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5442,10 +5442,10 @@
         <v>524</v>
       </c>
       <c r="C235">
-        <v>15.87</v>
+        <v>16</v>
       </c>
       <c r="D235">
-        <v>27.96</v>
+        <v>28</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5456,10 +5456,10 @@
         <v>525</v>
       </c>
       <c r="C236">
-        <v>15.67</v>
+        <v>16</v>
       </c>
       <c r="D236">
-        <v>23.4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5470,10 +5470,10 @@
         <v>526</v>
       </c>
       <c r="C237">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D237">
-        <v>25.21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5484,10 +5484,10 @@
         <v>527</v>
       </c>
       <c r="C238">
-        <v>14.24</v>
+        <v>14</v>
       </c>
       <c r="D238">
-        <v>23.39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5498,10 +5498,10 @@
         <v>528</v>
       </c>
       <c r="C239">
-        <v>17.52</v>
+        <v>18</v>
       </c>
       <c r="D239">
-        <v>28.28</v>
+        <v>28</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5512,10 +5512,10 @@
         <v>529</v>
       </c>
       <c r="C240">
-        <v>16.04</v>
+        <v>16</v>
       </c>
       <c r="D240">
-        <v>23.68</v>
+        <v>24</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5526,10 +5526,10 @@
         <v>525</v>
       </c>
       <c r="C241">
-        <v>17.29</v>
+        <v>17</v>
       </c>
       <c r="D241">
-        <v>28.18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5540,10 +5540,10 @@
         <v>530</v>
       </c>
       <c r="C242">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D242">
-        <v>25.21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5554,10 +5554,10 @@
         <v>531</v>
       </c>
       <c r="C243">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D243">
-        <v>28.46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5568,10 +5568,10 @@
         <v>532</v>
       </c>
       <c r="C244">
-        <v>16.59</v>
+        <v>17</v>
       </c>
       <c r="D244">
-        <v>24.17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5582,10 +5582,10 @@
         <v>533</v>
       </c>
       <c r="C245">
-        <v>15.28</v>
+        <v>15</v>
       </c>
       <c r="D245">
-        <v>28.19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5596,10 +5596,10 @@
         <v>534</v>
       </c>
       <c r="C246">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D246">
-        <v>27.77</v>
+        <v>28</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5610,10 +5610,10 @@
         <v>535</v>
       </c>
       <c r="C247">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D247">
-        <v>25.96</v>
+        <v>26</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5624,10 +5624,10 @@
         <v>536</v>
       </c>
       <c r="C248">
-        <v>17.7</v>
+        <v>18</v>
       </c>
       <c r="D248">
-        <v>27.19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5638,10 +5638,10 @@
         <v>537</v>
       </c>
       <c r="C249">
-        <v>17.37</v>
+        <v>17</v>
       </c>
       <c r="D249">
-        <v>25.9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5652,10 +5652,10 @@
         <v>538</v>
       </c>
       <c r="C250">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D250">
-        <v>26.03</v>
+        <v>26</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5666,10 +5666,10 @@
         <v>539</v>
       </c>
       <c r="C251">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D251">
-        <v>25.78</v>
+        <v>26</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5680,10 +5680,10 @@
         <v>540</v>
       </c>
       <c r="C252">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D252">
-        <v>25.61</v>
+        <v>26</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5694,10 +5694,10 @@
         <v>541</v>
       </c>
       <c r="C253">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D253">
-        <v>25.83</v>
+        <v>26</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5708,10 +5708,10 @@
         <v>542</v>
       </c>
       <c r="C254">
-        <v>16.47</v>
+        <v>16</v>
       </c>
       <c r="D254">
-        <v>26.12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5722,10 +5722,10 @@
         <v>543</v>
       </c>
       <c r="C255">
-        <v>14.78</v>
+        <v>15</v>
       </c>
       <c r="D255">
-        <v>24.98</v>
+        <v>25</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5736,10 +5736,10 @@
         <v>544</v>
       </c>
       <c r="C256">
-        <v>17.74</v>
+        <v>18</v>
       </c>
       <c r="D256">
-        <v>25.22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5750,10 +5750,10 @@
         <v>545</v>
       </c>
       <c r="C257">
-        <v>17.74</v>
+        <v>18</v>
       </c>
       <c r="D257">
-        <v>25.22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5764,10 +5764,10 @@
         <v>546</v>
       </c>
       <c r="C258">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D258">
-        <v>28.46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5778,10 +5778,10 @@
         <v>547</v>
       </c>
       <c r="C259">
-        <v>17.74</v>
+        <v>18</v>
       </c>
       <c r="D259">
-        <v>25.22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5792,10 +5792,10 @@
         <v>548</v>
       </c>
       <c r="C260">
-        <v>17.74</v>
+        <v>18</v>
       </c>
       <c r="D260">
-        <v>25.22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5806,10 +5806,10 @@
         <v>549</v>
       </c>
       <c r="C261">
-        <v>11.27</v>
+        <v>11</v>
       </c>
       <c r="D261">
-        <v>20.31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5820,10 +5820,10 @@
         <v>550</v>
       </c>
       <c r="C262">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D262">
-        <v>28.46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5834,10 +5834,10 @@
         <v>551</v>
       </c>
       <c r="C263">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D263">
-        <v>25.21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5848,10 +5848,10 @@
         <v>552</v>
       </c>
       <c r="C264">
-        <v>15.99</v>
+        <v>16</v>
       </c>
       <c r="D264">
-        <v>25.07</v>
+        <v>25</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5862,10 +5862,10 @@
         <v>553</v>
       </c>
       <c r="C265">
-        <v>13.62</v>
+        <v>14</v>
       </c>
       <c r="D265">
-        <v>24.89</v>
+        <v>25</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5876,10 +5876,10 @@
         <v>554</v>
       </c>
       <c r="C266">
-        <v>13.23</v>
+        <v>13</v>
       </c>
       <c r="D266">
-        <v>22.79</v>
+        <v>23</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5890,10 +5890,10 @@
         <v>555</v>
       </c>
       <c r="C267">
-        <v>13.57</v>
+        <v>14</v>
       </c>
       <c r="D267">
-        <v>21.67</v>
+        <v>22</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5904,10 +5904,10 @@
         <v>556</v>
       </c>
       <c r="C268">
-        <v>21.47</v>
+        <v>21</v>
       </c>
       <c r="D268">
-        <v>28.61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5918,10 +5918,10 @@
         <v>557</v>
       </c>
       <c r="C269">
-        <v>21.47</v>
+        <v>21</v>
       </c>
       <c r="D269">
-        <v>28.61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5932,10 +5932,10 @@
         <v>558</v>
       </c>
       <c r="C270">
-        <v>21.47</v>
+        <v>21</v>
       </c>
       <c r="D270">
-        <v>28.61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5946,10 +5946,10 @@
         <v>559</v>
       </c>
       <c r="C271">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="D271">
-        <v>13.19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5960,10 +5960,10 @@
         <v>560</v>
       </c>
       <c r="C272">
-        <v>14.04</v>
+        <v>14</v>
       </c>
       <c r="D272">
-        <v>24.97</v>
+        <v>25</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5974,10 +5974,10 @@
         <v>561</v>
       </c>
       <c r="C273">
-        <v>21.47</v>
+        <v>21</v>
       </c>
       <c r="D273">
-        <v>28.61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5988,10 +5988,10 @@
         <v>562</v>
       </c>
       <c r="C274">
-        <v>21.47</v>
+        <v>21</v>
       </c>
       <c r="D274">
-        <v>28.61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -6002,10 +6002,10 @@
         <v>563</v>
       </c>
       <c r="C275">
-        <v>21.47</v>
+        <v>21</v>
       </c>
       <c r="D275">
-        <v>28.61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -6016,10 +6016,10 @@
         <v>564</v>
       </c>
       <c r="C276">
-        <v>21.47</v>
+        <v>21</v>
       </c>
       <c r="D276">
-        <v>28.61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -6030,10 +6030,10 @@
         <v>565</v>
       </c>
       <c r="C277">
-        <v>21.47</v>
+        <v>21</v>
       </c>
       <c r="D277">
-        <v>28.61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -6044,10 +6044,10 @@
         <v>566</v>
       </c>
       <c r="C278">
-        <v>29.68</v>
+        <v>30</v>
       </c>
       <c r="D278">
-        <v>33.95</v>
+        <v>34</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -6058,10 +6058,10 @@
         <v>567</v>
       </c>
       <c r="C279">
-        <v>27.05</v>
+        <v>27</v>
       </c>
       <c r="D279">
-        <v>34.75</v>
+        <v>35</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -6072,10 +6072,10 @@
         <v>568</v>
       </c>
       <c r="C280">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D280">
-        <v>21.65</v>
+        <v>22</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -6086,10 +6086,10 @@
         <v>569</v>
       </c>
       <c r="C281">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D281">
-        <v>28.46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -6100,10 +6100,10 @@
         <v>570</v>
       </c>
       <c r="C282">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D282">
-        <v>28.46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -6114,10 +6114,10 @@
         <v>571</v>
       </c>
       <c r="C283">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D283">
-        <v>28.46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -6128,10 +6128,10 @@
         <v>572</v>
       </c>
       <c r="C284">
-        <v>13.62</v>
+        <v>14</v>
       </c>
       <c r="D284">
-        <v>28.02</v>
+        <v>28</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -6142,10 +6142,10 @@
         <v>573</v>
       </c>
       <c r="C285">
-        <v>11.66</v>
+        <v>12</v>
       </c>
       <c r="D285">
-        <v>15.6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -6156,10 +6156,10 @@
         <v>574</v>
       </c>
       <c r="C286">
-        <v>13.62</v>
+        <v>14</v>
       </c>
       <c r="D286">
-        <v>29.76</v>
+        <v>30</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -6170,10 +6170,10 @@
         <v>575</v>
       </c>
       <c r="C287">
-        <v>21.47</v>
+        <v>21</v>
       </c>
       <c r="D287">
-        <v>28.61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -6184,10 +6184,10 @@
         <v>576</v>
       </c>
       <c r="C288">
-        <v>21.47</v>
+        <v>21</v>
       </c>
       <c r="D288">
-        <v>28.61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -6198,10 +6198,10 @@
         <v>577</v>
       </c>
       <c r="C289">
-        <v>21.47</v>
+        <v>21</v>
       </c>
       <c r="D289">
-        <v>28.61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -6212,10 +6212,10 @@
         <v>578</v>
       </c>
       <c r="C290">
-        <v>21.47</v>
+        <v>21</v>
       </c>
       <c r="D290">
-        <v>28.61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -6226,10 +6226,10 @@
         <v>579</v>
       </c>
       <c r="C291">
-        <v>21.47</v>
+        <v>21</v>
       </c>
       <c r="D291">
-        <v>28.61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -6240,10 +6240,10 @@
         <v>580</v>
       </c>
       <c r="C292">
-        <v>4.45</v>
+        <v>4</v>
       </c>
       <c r="D292">
-        <v>5.73</v>
+        <v>6</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -6254,10 +6254,10 @@
         <v>581</v>
       </c>
       <c r="C293">
-        <v>17.98</v>
+        <v>18</v>
       </c>
       <c r="D293">
-        <v>28.61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -6268,10 +6268,10 @@
         <v>582</v>
       </c>
       <c r="C294">
-        <v>13.62</v>
+        <v>14</v>
       </c>
       <c r="D294">
-        <v>25.36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -6282,10 +6282,10 @@
         <v>583</v>
       </c>
       <c r="C295">
-        <v>14.38</v>
+        <v>14</v>
       </c>
       <c r="D295">
-        <v>24.73</v>
+        <v>25</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6296,10 +6296,10 @@
         <v>454</v>
       </c>
       <c r="C296">
-        <v>17.73</v>
+        <v>18</v>
       </c>
       <c r="D296">
-        <v>25.21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6310,10 +6310,10 @@
         <v>584</v>
       </c>
       <c r="C297">
-        <v>18.48</v>
+        <v>18</v>
       </c>
       <c r="D297">
-        <v>25.01</v>
+        <v>25</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6324,10 +6324,10 @@
         <v>585</v>
       </c>
       <c r="C298">
-        <v>15.01</v>
+        <v>15</v>
       </c>
       <c r="D298">
-        <v>22.73</v>
+        <v>23</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6338,10 +6338,10 @@
         <v>586</v>
       </c>
       <c r="C299">
-        <v>23.88</v>
+        <v>24</v>
       </c>
       <c r="D299">
-        <v>28.03</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
